--- a/excel/cars-sample.xlsx
+++ b/excel/cars-sample.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Veronica\Documents\WPI\WPI 2021-22\CS480X\a2-DataVis-5Ways\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DB19C8FC-1557-42AA-888F-CE76C72CD3DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D6E207-8958-4427-95F5-44ED072F77D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cars-sample" sheetId="1" r:id="rId1"/>
@@ -292,7 +292,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -821,6 +821,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF08787"/>
+      <color rgb="FFF064F0"/>
+      <color rgb="FF28D2AF"/>
+      <color rgb="FFB4B44B"/>
+      <color rgb="FF50C8F5"/>
       <color rgb="FFF2ABA7"/>
       <color rgb="FFEEA4F2"/>
       <color rgb="FF7DD3AF"/>
@@ -874,8 +879,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="F2ABA7">
-                <a:alpha val="74902"/>
+              <a:srgbClr val="F08787">
+                <a:alpha val="50196"/>
               </a:srgbClr>
             </a:solidFill>
             <a:ln>
@@ -1789,8 +1794,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="C4C474">
-                <a:alpha val="74902"/>
+              <a:srgbClr val="B4B44B">
+                <a:alpha val="50196"/>
               </a:srgbClr>
             </a:solidFill>
             <a:ln w="25400">
@@ -2704,8 +2709,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="7DD3AF">
-                <a:alpha val="75000"/>
+              <a:srgbClr val="28D2AF">
+                <a:alpha val="50196"/>
               </a:srgbClr>
             </a:solidFill>
             <a:ln w="25400">
@@ -3619,8 +3624,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="77CBF4">
-                <a:alpha val="74902"/>
+              <a:srgbClr val="50C8F5">
+                <a:alpha val="50196"/>
               </a:srgbClr>
             </a:solidFill>
             <a:ln w="25400">
@@ -4534,8 +4539,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="EEA4F2">
-                <a:alpha val="75000"/>
+              <a:srgbClr val="F064F0">
+                <a:alpha val="50196"/>
               </a:srgbClr>
             </a:solidFill>
             <a:ln w="25400">
@@ -5441,8 +5446,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:bubbleScale val="20"/>
+        <c:bubbleScale val="15"/>
         <c:showNegBubbles val="0"/>
+        <c:sizeRepresents val="w"/>
         <c:axId val="682177935"/>
         <c:axId val="682178767"/>
       </c:bubbleChart>
@@ -5691,7 +5697,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6345,15 +6351,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>478953</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>141111</xdr:rowOff>
+      <xdr:colOff>502472</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>117593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>133270</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>122257</xdr:rowOff>
+      <xdr:colOff>156789</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>98739</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6677,11 +6683,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="AE21" sqref="AE21"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" workbookViewId="0">
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
